--- a/Worktopia_cod/src/main/resources/Docs/Factura_0.xlsx
+++ b/Worktopia_cod/src/main/resources/Docs/Factura_0.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Worktopia SL</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>aguseltin@gmail.com</t>
-  </si>
-  <si>
-    <t>Reserva ID: 12 Asiento ID: 13 fecha y hora de inicio 2025-02-27T15:00 y fin 2025-02-27T19:00</t>
   </si>
   <si>
     <t>Reserva ID: 16 Asiento ID: 14 fecha y hora de inicio 2025-02-27T08:00 y fin 2025-02-27T11:00</t>
@@ -628,7 +625,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="5" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -636,7 +633,7 @@
         <v>23</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -651,16 +648,11 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="5" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>9.0</v>
-      </c>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -829,7 +821,7 @@
         <v>14</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>30.2804</v>
+        <v>20.1869</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -837,7 +829,7 @@
         <v>7</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.119628</v>
+        <v>1.413083</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -848,7 +840,7 @@
         <v>0.1</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -856,7 +848,7 @@
         <v>8</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>32.4</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
